--- a/doors-detector/results/house1_door_no_door.xlsx
+++ b/doors-detector/results/house1_door_no_door.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.7624318922406027</v>
+        <v>0.7906390544279713</v>
       </c>
       <c r="F2" t="n">
         <v>3630</v>
       </c>
       <c r="G2" t="n">
-        <v>2973</v>
+        <v>3049</v>
       </c>
       <c r="H2" t="n">
-        <v>657</v>
+        <v>581</v>
       </c>
     </row>
     <row r="3">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.680181806609084</v>
+        <v>0.6942910821111126</v>
       </c>
       <c r="F3" t="n">
         <v>128</v>
       </c>
       <c r="G3" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H3" t="n">
-        <v>225</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.8755330794273006</v>
+        <v>0.8864307004391663</v>
       </c>
       <c r="F4" t="n">
         <v>3630</v>
       </c>
       <c r="G4" t="n">
-        <v>3269</v>
+        <v>3298</v>
       </c>
       <c r="H4" t="n">
-        <v>361</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5">
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.7285128451670794</v>
+        <v>0.7486183697437552</v>
       </c>
       <c r="F5" t="n">
         <v>128</v>
       </c>
       <c r="G5" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H5" t="n">
-        <v>113</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.8590238386822012</v>
+        <v>0.8741913311035496</v>
       </c>
       <c r="F6" t="n">
         <v>3630</v>
       </c>
       <c r="G6" t="n">
-        <v>3226</v>
+        <v>3263</v>
       </c>
       <c r="H6" t="n">
-        <v>404</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.7706574983088704</v>
+        <v>0.7795591949440656</v>
       </c>
       <c r="F7" t="n">
         <v>128</v>
       </c>
       <c r="G7" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H7" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.8591987478085229</v>
+        <v>0.8790998936544646</v>
       </c>
       <c r="F8" t="n">
         <v>3630</v>
       </c>
       <c r="G8" t="n">
-        <v>3227</v>
+        <v>3278</v>
       </c>
       <c r="H8" t="n">
-        <v>403</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.7817609320303386</v>
+        <v>0.7640187125110783</v>
       </c>
       <c r="F9" t="n">
         <v>128</v>
       </c>
       <c r="G9" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H9" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
